--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,61</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>5,98</t>
+          <t>4,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>1,24; 4,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,05</t>
+          <t>2,07; 5,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 5,4</t>
+          <t>-2,61; 3,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,94; 6,75</t>
+          <t>1,14; 7,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,48</t>
+          <t>-0,0; 3,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,93</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 3,18</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 5,4</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 7,24</t>
+          <t>2,42; 5,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1181,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1514,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>111,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>100,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>226,87%</t>
         </is>
       </c>
     </row>
@@ -801,37 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,48; 132,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,5; 373,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,82; 326,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>79,04; 525,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,04</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,27</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
+          <t>4,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,78</t>
+          <t>-2,44; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,26</t>
+          <t>0,33; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,44</t>
+          <t>-4,52; 1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,24</t>
+          <t>3,27; 10,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,48</t>
+          <t>-2,78; 0,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,87; 4,61</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 3,72</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 9,33</t>
+          <t>2,3; 6,51</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-27,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>127,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-28,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>158,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-25,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>150,1%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,25; 170,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 442,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,51; 72,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,87; 394,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,48; 37,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>47,43; 304,04</t>
         </is>
       </c>
     </row>
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,21</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,32</t>
+          <t>3,19</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,67</t>
+          <t>-4,47; 0,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,31</t>
+          <t>-3,38; 5,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,24; 10,04</t>
+          <t>2,31; 15,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,05</t>
+          <t>6,62; 17,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,37; 21,21</t>
+          <t>-1,95; 2,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,06; 23,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 6,92</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>3,74; 7,56</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 12,22</t>
+          <t>-2,7; 7,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-44,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>129,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>186,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>62,19%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,67; 13,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,41; 138,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,24; 342,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,94; 436,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,14; 67,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-35,15; 163,35</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>5,68</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>4,57</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>9,18</t>
+          <t>3,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 7,14</t>
+          <t>-3,85; -0,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,62</t>
+          <t>2,22; 6,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,19; 11,5</t>
+          <t>-2,06; 2,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 8,16</t>
+          <t>-1,95; 6,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,62; 7,87</t>
+          <t>-2,74; 0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 11,33</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 6,92</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>3,61; 5,54</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 10,75</t>
+          <t>0,65; 5,3</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>75,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,48%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>61,71%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,77; -7,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,43; 139,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,66; 59,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; 115,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,1; 6,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>14,55; 106,23</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,62</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>12,09</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,21</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>8,97</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>16,88</t>
+          <t>7,9</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,53</t>
+          <t>-0,52; 4,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 7,48</t>
+          <t>2,79; 8,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,67</t>
+          <t>-4,18; 2,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,17</t>
+          <t>2,66; 12,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,49</t>
+          <t>-1,99; 2,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>15,33; 24,56</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>7,55; 10,79</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 10,77</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>13,76; 19,11</t>
+          <t>4,66; 10,69</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>159,71%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-4,17%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>88,03%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,08; 178,61</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,82; 368,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,39; 26,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,64; 115,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,26; 35,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>48,83; 136,5</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>13,03</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>10,64</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>13,47</t>
+          <t>2,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>-1,49; 0,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>-0,82; 2,5</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,45</t>
+          <t>-4,54; 1,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,44</t>
+          <t>1,1; 7,28</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,66; 13,69</t>
+          <t>-3,76; 0,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,2; 19,43</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 12,33</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>7,74; 11,11</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>11,7; 15,27</t>
+          <t>0,27; 5,37</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-46,53%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>108,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,49%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>26,54%</t>
         </is>
       </c>
     </row>
@@ -1876,42 +1500,27 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,62; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,59; 11,64</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,23; 63,18</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,54; 10,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>2,34; 57,68</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,3</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14,15</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>10,52</t>
+          <t>4,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,96; 4,27</t>
+          <t>-1,35; 0,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,61; 3,85</t>
+          <t>1,6; 4,22</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,59</t>
+          <t>-1,79; 0,95</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,38</t>
+          <t>1,78; 6,45</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,08</t>
+          <t>-1,29; 0,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,68; 15,52</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>5,87; 7,11</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>5,53; 6,7</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>9,0; 11,45</t>
+          <t>2,36; 5,09</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>86,95%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-3,55%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>62,2%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,4; 15,2</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,41; 134,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,55; 11,36</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,59; 73,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,64; 7,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>38,55; 84,08</t>
         </is>
       </c>
     </row>
@@ -2141,11 +1690,11 @@
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_5-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
